--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2003 (P03).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2003 (P03).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,182 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>('Bear', ['Token Creature — Bear', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Bear</t>
+          <t>('Demon', ['Token Creature — Demon', 'Flying', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Demon</t>
+          <t>('Insect', ['Token Creature — Insect', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Demon</t>
+          <t>('Rukh', ['Token Creature — Rukh', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Sliver', ['Token Creature — Sliver', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Rukh</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Rukh</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Voidmage Prodigy</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{U}{U}, Sacrifice a Wizard: Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Morph {U} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2/1</t>
+          <t>('Voidmage Prodigy', ['{U}{U}', 'Creature — Human Wizard', '{U}{U}, Sacrifice a Wizard: Counter target spell.', 'Morph {U} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', '2/1'])</t>
         </is>
       </c>
     </row>
